--- a/Automation-UserCMD/TestData/Outputs/SkillOutputError.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/SkillOutputError.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Errors" sheetId="1" r:id="R39d0162dbafd4fc0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Errors" sheetId="1" r:id="R72ac751cadf3437d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Automation-UserCMD/TestData/Outputs/SkillOutputError.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/SkillOutputError.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Errors" sheetId="1" r:id="R72ac751cadf3437d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Errors" sheetId="1" r:id="R712ac26725704d38"/>
   </x:sheets>
 </x:workbook>
 </file>
